--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/42_K.Maraş_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/42_K.Maraş_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4E5F54F-5722-474F-B091-6B3AF6E75D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F857365-903B-4B89-B159-3D9BEEB8818E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{636467A2-C9ED-480C-9B5A-8FF9449DE1C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0AD920DE-0D86-4F8A-893C-0D2A3BDBA0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{A7EB89A6-7FD8-4DE4-A855-5A002A54147D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{1B45FAFD-1F3C-4986-A0A2-2D261C4612D5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{A6A368F8-0B0E-4B33-BC19-0F5B10736967}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{4A10B215-3E43-4DF8-9410-B19B9D23AEEE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{55C6FB26-E355-4CCB-B0DF-262366DE4761}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{23B781C9-C7D1-4C8B-BDDF-6C72A3CC1647}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{F4285CDB-8FCA-4C15-A4B2-638BA2693A0D}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{46D58DC6-0D63-405B-A73D-EF6DF6F355C1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C87DB3-883F-41E9-8446-E3C4A67FAD4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DC0474-630A-4C63-A1BD-A77530717BA4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2467,18 +2467,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{46EF62B2-3A05-4717-A531-6C930723AFCC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{64985EDF-AD7E-4036-805E-3C9FCA8BAF65}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CB337AFE-F85F-4A2E-9E53-B31F3F959065}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2EAB51B8-5778-43C7-95FD-CC394642A94C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08D4F3BB-4207-413A-A7FA-1F8395C00FCD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FF90F2B0-9B27-496A-A7DA-2C0CEE110D91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0B8D23CF-832A-4E7C-A861-3A5351CC7CA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{73573CAF-F0D7-4B60-A83B-D8DD1054B6B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0AF43400-D261-4481-AD7F-8178F7CB5EDC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DF21CF11-7D83-44F8-B230-F4420C7B3CBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F87FA84E-8821-4BEF-8168-68423A61BAC4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{092781E7-177A-42A3-98DB-DA2F1DED560B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F73672B0-C626-4200-B308-C504128057F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{46496BC4-D42D-4D21-A2E0-8E40E942A840}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{705179F5-C546-4499-91D7-93A3EF58F697}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B1AFD685-3584-4312-8480-098529621CF3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FB062414-50D2-423B-A843-9708E416427F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{90FFA355-7949-4B74-AE4C-A9F1EB17D74B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1E8AA1F8-2F37-4CF3-B948-25BF41BA8DC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{92642687-4D7C-4210-80C3-182C524C070F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{64F643FC-1070-4E7B-812D-01D1E242A284}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{829E1CEC-60C9-49C5-865B-B0F21F527829}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55D781BA-639F-495E-8BE5-7954B686ABC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C75AEC5-E7A3-4157-B0EA-8E49C41D6027}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2491,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C65737-C8B1-4EA3-A42C-64A33F0A2AE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FFA8CE-F16C-4F10-A6DE-DE255FDE8621}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3700,18 +3700,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90EA01FF-2DEF-42CC-B7F8-5684398E7760}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0746DD38-281D-4B15-87A7-9D472FF465CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{57323209-E8B5-49EA-AFBB-F9CEE5095210}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F27346E2-D8A2-497A-88D7-68498F348FB8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{52D79D30-39EE-4FDB-8D4F-412742C016CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B8C32BC4-120B-4E4F-AAFE-3CF05E986916}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C4C4ED24-9866-4D7F-8B75-1E15354CFFC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3E466FE5-2B9A-4A51-98DE-11F54E269E5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B4DB8CEF-EE98-4C47-B7EF-07FD932F5924}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC90A4FC-A422-4843-918D-166FF5800FA1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FB6A1241-00B1-474A-AE78-D014D4CF5529}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB1A55A0-0273-4E72-828E-685598E81497}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{95FC5E40-3C93-4C5F-9BF2-98240A42EC81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D209C4D1-96F5-4E22-AA06-7327DE018285}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7EBD288A-8829-499F-9BFA-3193EFC9F867}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{37F09FD0-2DF2-47D0-8D47-D6608C53E599}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{019CFCA0-80CB-4BB9-812C-C4FA9248DF3D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6BB4556A-7C54-40FE-B2C7-008F2888F8A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{727529B9-D808-47CE-B475-200A19BF6296}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E28A5EC5-2DFD-4684-83E0-8252E8178295}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0FEF23FE-E9A8-43B8-94D8-030918D92240}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1C0DF313-1044-423E-8B35-F4D1C1A7A5EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D7C25A64-22D3-45DB-8286-E44E43D250F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CE9C27DB-F448-4847-A02D-E041E6415E87}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3724,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666E87BE-54A3-477F-807A-A29D87B049BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C786B139-6553-4DF5-B8CA-1D546992C68E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4929,18 +4929,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{766ED177-A1EE-4346-BFCC-617180D1E8FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4BAED1BB-9C62-4E7B-96E5-8DE3244FF90F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{04384854-90D4-4B1B-86C7-ECA99BC114FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4AB25C50-6DFD-4433-86D1-3B8DA95C3F30}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6B67F4D0-43FA-47D2-8C9B-49521D592B3A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FC696ABC-7781-4661-AECC-3D46401722F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1447349D-EC9E-4D20-9DEE-33067671F9C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{24C174A5-05C3-4AB8-92AE-215CCBFAE27A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A05E6660-5339-44F6-B2FE-F5DEBC92A216}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E38B331A-ABCA-41B9-8D45-18F3E28F57FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C53B80B5-A284-4200-B097-A20656474A5E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BAB22463-9FB9-464D-A266-0D5C990A7D04}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{111CBF6F-31DB-43A4-91BF-78766765988F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6511C053-D779-4CA7-B7E8-808FFDE78A53}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5BE80975-6F7A-4BBC-9E4D-EA9180686D57}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5A8D5AC2-A99E-4901-80ED-CD98157DC550}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF2A6D3A-F6A3-43CA-88CE-52E00C879BBE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{88F00985-1DA4-47C3-AB78-F0764E4FF6EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E333EC6E-EC28-4473-AF17-1403ED294C26}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BE4A5EB5-8470-4D32-9253-2FC53EB6F7DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8BAA68B3-A419-4D89-A5E7-7B84B9E6D20E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E6A90F86-F445-48DB-9ADA-B82DB16E83F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{69418F4C-34D3-4725-9941-A97F3A194022}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65D3C0B6-A907-4248-B9FD-352794354DBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4953,7 +4953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8252EF1E-C916-41B2-A920-8F4CB1553EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B262218-3ED5-435C-80AC-578DBFCF83C8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6152,18 +6152,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{09CEA552-74A0-4946-8EA7-0B577DB023DE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{04B2DB24-B89A-45FB-B7DD-E89646047B22}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DDDBBDF1-0149-4424-BF41-B9EB8DF4B4AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{962CFDB9-0F1D-4839-AF13-1B1AAACB4D26}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{025D6BC0-791D-4845-A26B-C34AAE4870C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{73829700-3368-4DF1-A96E-9F8AF988DE47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D908DBAE-2262-469D-8685-03D39A1872BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0C952559-4F34-4B10-9A26-AC6B565E90A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7BF70DD5-F713-4AB2-805C-7CAA3D917317}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{33162A45-069A-422F-A86A-45849B29AF29}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{955DC0CD-6DCE-498C-9208-580AD6390FB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D1B95BBE-83F2-41F7-9261-3A91EA4F7E8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{616EC281-AFAF-46F3-A211-61D385ADC27C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E0A2A757-C804-4C24-AD48-4BDF51C347C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F3AD68FD-DC0E-4C07-A41F-89FA4F05B40E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C22248AC-6062-4C9A-85B7-C2F5804833F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E892A675-9063-4634-BE56-4E08C0400BE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{566972AE-1BEE-4089-B0F9-BA617DC4E670}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{43EF85AE-9F7B-4D8B-9A93-D0B5BF64926F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2480CD28-E643-430A-BF11-F6694E495FF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A54ABF6-D1F0-4D89-9361-1BD9C5BA0198}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A705F539-BA9C-4CA7-9A28-028416149586}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3EBB90C2-331A-4B46-BCEE-8578E90E7B43}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{741E53F8-A932-4093-9E75-126A4B1755E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6176,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F47D7F6-5A25-44C8-AD2D-0A5FDE327541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B288650B-4FEB-4BC0-A866-18C1A53D60D7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7409,18 +7409,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CD7221EF-BAA1-46C0-A859-8539E6583FF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2FD4E3EF-5584-47FE-8FA2-A69F9BF9E73E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{53FF6173-F71E-4082-A344-2B058DCE4EBD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1019C6AA-EC8E-4819-803F-03AAD94000FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{07014F67-0B9E-4C06-BBB9-9974C6F93D42}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F9820DD6-06AB-411F-A4F9-5AB4543290DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A11D48BC-895F-4F3E-8FA9-EBC8FCFA226C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0FD0EAE3-0ACB-4AF3-8077-1B30E9C4A0F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF273D4F-6033-427A-AEF4-A6A8D659D133}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DB8C2D19-CBB1-40E1-8315-0815B6F5993A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{31723902-6C9D-4E7F-B0B2-9F8F468D0B6B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{090E84D6-249D-4A83-9E2A-0927FA8B6E76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EEC0A69F-D47C-4E1D-A90E-62EED8D1560F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{793249FD-C6E7-4780-8D07-E4A6D593CE09}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A427F302-8346-4F0F-AEAF-BAE65551C6D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F9ACD8E7-C84D-4281-8787-6331B95351F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6689691D-BD7E-4EA2-AC6E-A101AD3E74F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E18C2381-4C64-458D-9602-94E92042B532}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{41CD0844-3730-4364-8FCC-908CC7287ABE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{519E9F08-D350-42F9-AD96-A4726EF2F65D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B43D7A19-DFA4-407C-AAD9-53E8DF4F784D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5BD06ECD-787A-46EB-A869-BB0B944E182D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{60CF88FE-6303-4257-BC35-B1A4451AA81F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{80C5C887-7840-4B4E-A226-5F5FE3A937BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7433,7 +7433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD50C85-8A41-4C12-9359-0E078EE57139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82346F7C-7F36-4ACB-B8D7-F481F920B278}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8666,18 +8666,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FCF8C18A-AAA2-407B-9E5B-AB502649907D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1633FDC5-F5A4-4481-8AA1-C727F3576706}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9372AA7-BF8E-4EA2-87FD-AA2CC1699AAA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B124A32A-C3F6-46E4-A453-29A5DDEDB4DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4E70FC9E-30D6-4568-9596-0FAE00D4F9C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{827D5280-24D9-4AE4-A0D1-8575A77DCD27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BC83626F-0BE4-40FB-A803-AF0DD6213897}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F66BB74-DA49-406A-A9B6-5A45EB7B68AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4EF8AF40-9EB2-461A-9E10-38F9ED3B04D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{96BB5753-47C8-496E-8101-23FEC879B3B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{41381007-B0C3-44B7-81F2-C30D250D2D88}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8DAEFA98-1738-4105-A142-42B645C6F777}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5FF16BE3-A0B3-41C2-8432-309E22F83141}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9C03C090-EC1E-4AD6-BD02-F49CCA77C6AC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{36395A75-A92F-44EE-9F04-2D72E1624B1E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{84ADE3F0-A641-40A5-957E-FE2D398253DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0D69E485-5E9D-4748-BE5C-99BE1C7E715E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B517634B-49C4-449B-9F19-989542FCE11E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6A2F3A4E-F3FE-4181-A905-E4664BA30EC3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EB09B719-DEEA-4F47-9361-6FEA403F7AA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{911DB580-1F36-46A7-8A18-286877353C62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{85C19872-7333-4A20-84C9-0FC8F16AFC03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FD636791-E3C9-45C2-8330-AC5C443DE579}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{021B67BB-3474-4FA8-A0EE-4C17B07ADF51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8690,7 +8690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32F1F18-E680-4209-BD99-60292E5A181D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B053440-7F36-4DDB-B2B1-1C13B43DAC7C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9923,18 +9923,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F7E0A476-8F8D-4AB9-BC40-298F8E0A1033}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5009984A-436A-4D8E-9C56-A6BAC37D828F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2BC48961-EB1D-4A75-8A84-AA77CE10AB11}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8AA74923-219E-4763-8FE6-8B87F2FBBE2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2279F782-E058-4A77-8326-119B24B74167}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D7BDD736-77AB-4893-8998-8D3307256355}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{68F97E44-6126-4A12-9DE9-79649D51701D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AE293843-03DD-4617-9857-EAE638BAC1ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6D0737A1-9F9F-4C41-A8A7-281A92D74950}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3E311555-E2A1-4C27-9FAB-C5BCF7557A0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{130140F6-D801-4E0E-86B6-3AB6F91FC9AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C4A21176-E234-4C78-B492-92EBC7BB06EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B620F05E-EF31-4BDB-9C7E-DF52DCE19657}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9EFC9315-9BA5-4E74-8AAA-D4CCC52D1114}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{93542A9C-B709-4327-B7A9-BA29A97F55B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{70DAD073-4FBE-43C9-B779-9AB93E303D94}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4D0EE5B8-700E-4BF0-A5A6-399889FE9AC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CB6D7C02-2D21-4D72-B23E-88530978D4EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EE8FFB2C-64AF-4EDF-BDBE-1C28222FF01F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EB4982CF-E58D-47E2-825B-7485278111BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D635B5C8-2D64-40E4-8CF8-F4D532BCE7DC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0EDC737D-ABC7-4CFD-9AA9-2165F069A0B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9CF6A12E-3E58-4181-9B5E-6BEB9AA5F1ED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A78AF447-04B0-4A4E-B1DD-CC67B32334EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9947,7 +9947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AC0A62-57D1-4911-8871-791EBE3F32DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93EA516-8562-4D05-AD43-9D9AC2E6A572}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11172,18 +11172,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{24CEB8E8-5387-4207-B99B-C699937D6D7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CEF2F26D-BF71-4065-A956-88ACCD984836}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B062229F-4305-469D-A44E-3D97111AB62A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2729B8F4-338A-4433-B3B6-FC9E3C8C4DDE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7A53C6E7-030D-4363-97DD-C600F2FFFFB8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BEBA6F9A-58FA-4FCB-BE99-4DB3C1B776F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DF393ED5-EE9B-4A88-8917-BDFFF459914D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{23181E9A-170E-4AC6-A58F-B4925EA2C3BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7093E965-4F48-4AC3-B8F2-82DF053EF067}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6082C2A2-48FF-446D-AAA5-712AB64A0E58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74C51003-508B-40E1-BAB8-D48C55607DB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{11F231BB-D252-410E-BBF1-17D35AFDB3C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AF1DE836-3814-4FA1-BDCC-021FDC412BAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{22F29378-400E-4063-810C-0158A4CCF5A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1FC91D93-1CFF-4F4B-ABF2-87A40050F4B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{16E1072A-EF29-48CB-A026-04175AA259D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6AAA868B-89E8-4F04-A9B2-AD80FCA3A9A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DD286A82-7D5C-4552-9E2A-5C591DFDDE2E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{539E277E-7925-4908-87EF-938A5F3E4E9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{196D6197-8C9B-48AD-B8BC-C6947B50F878}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{22139985-2360-4652-B3B3-D33AC681FBA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9575743A-5429-4557-8780-0D57B54B59E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{345A6D3C-E8D1-4080-BDF1-E75E3F3509CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{356EBE78-9B48-43CF-9129-1A371DB40D67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11196,7 +11196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259DC399-FB07-40C0-BE9B-C01B4CC7A763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF7CFE3-C443-4093-8CBA-D6AFEC2324CB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12421,18 +12421,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5CF239A3-F578-43EA-A911-982E962B363D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{764B2D54-C883-473C-BA23-67E630FF2B4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C90DE2CB-9880-4371-B9BC-1735DDB45C0E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7E409D83-0950-406A-8A20-88C2518EB2A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C50CCDB2-E245-4A80-9F2C-587A71A314D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D24236D9-6810-4F02-B7B3-C87498F174BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{52BDD3CC-540D-4EE8-8D8E-330D92930408}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AE300B23-1B76-4D85-8EF4-DA97FCEE083C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{962A843E-51D7-422B-A6C1-9272C6DB3D44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A0B559D8-1E71-49CD-A0E7-8FE9758268FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E93E365F-003C-4491-B6CD-437EA3B4C1DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{95924444-DC59-4506-B18E-D622089A1166}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{83F2CF8D-2959-449C-B2E6-5AFC8F71F6D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E9C894CC-B6CF-4749-BD44-55E188B0585B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{30DF0069-B271-49E2-A25D-4BF2CD43D2FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8C9358CE-95BD-4E8E-A42D-5C217076652D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0258F78A-6D8A-496B-BD11-1DED4E55EB2D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2BD02039-1ED0-4581-A2B1-2F1372C78CBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{68FCC8D7-2F91-4812-8D4E-77A2EB53E67C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{41F1D9C4-9A4D-4766-A055-C71EC903CBEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B5E4326D-5FAB-4863-8756-99389DB4B9E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E9D0A3A6-79A2-4955-A4F8-650DC23872AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7B8802BE-65E6-478F-B0F1-037649EAE2D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EB4CCB22-35D0-470C-BAB2-ADBD3C06B60A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12445,7 +12445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7E6D69-4320-4552-B47A-917EA64C82ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A154BC5A-6EE2-4F70-AEE1-EAE06CAB46BD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13670,18 +13670,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EC3B519F-789D-4227-AF08-1317A76E3579}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D2C45B60-D4D7-40B2-9E84-656F562EBC30}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5A20484-0FF0-443D-9222-75E1BF128A83}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{37141C6C-C3F6-45A5-BF88-EC9AC154564B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F56530A8-3AF6-48B9-955E-E6F5E2677451}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C6B2130B-8DEC-41BF-A971-1C165D58E39D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{75370514-E384-4E3D-99ED-E2FA5A392509}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B10C9AC9-D6FF-41AD-915A-579C6AC0128A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7A833EF2-62C8-4828-9A16-F2A65FD539E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E0DDC0D9-42D1-40FE-99FA-86E5F6892E2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A595DAC9-471A-4E37-9FAE-22B307C05470}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6117250A-1684-4C54-9997-8F5312D4DAF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{02D18AB3-FB06-446D-831A-719B5DC8FF73}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E6DEF935-61A9-46E1-8AAC-1E810A118ECF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8EA07DD8-B863-4980-8567-C5354ABA6E38}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A6A92520-DD7E-4734-A754-713A88AB2EBC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B0AC4D03-B997-4B26-99E4-DBE4CDAD390B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD95B03E-D8C8-4518-8910-BE99F5183607}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{237D977A-2CE6-4895-8759-6F7BB86BA824}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D4719BA9-6441-4BD9-AF66-2313E162488D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B5433D35-FD12-4B95-8F9D-0D80F2874427}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4D786A79-35A5-42B9-B5D3-AB633CBAA264}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AA1B871D-B60C-4131-B38D-7B38F13E93EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{33D24E12-B092-43B6-AB16-96181D7B96B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13694,7 +13694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C44B6A0-50F3-495E-81CD-4F0149589AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77FB2CC-B6B7-4C90-964D-2E87F1BB0DF5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14915,18 +14915,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{18A68D37-07A1-4B5A-8D8C-563C49F59E0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F6D9D335-4E2F-4680-94F4-C9F81E2D8974}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{94061F72-3CEA-4AE2-A1F6-F9F0C9C54B45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A632E88F-D2D9-4133-85D3-4B862D596344}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{111F7C9D-3A4C-4A91-966A-DC59D621A7A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A4D13221-D576-4965-A596-E08023DDA82B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0D0FFA67-C2FA-4A0E-A77F-511CE8C86C6B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CDF1198B-966D-47F3-B4F2-089ADCF6A696}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CF65C3BB-FA01-4927-8961-DAC2267D9B31}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1238A7B3-8A66-41BB-85D7-DF4CDBCDBE2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{335D5ED9-5808-4578-8351-479F3981461C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C437CFFC-46E7-497E-9378-EA86265885B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C3013C35-D691-4B54-9E9C-CB83C4F92482}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E92E9037-8C94-4FB4-9944-D269C0C8C00B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{504B1943-931B-400E-8B3E-37C9C797E914}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4D1B2837-0570-43EA-804B-7AC0B69146CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D8F694E4-7684-4A30-899D-AD6432275DE6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1E29DAA9-2B3F-4BAF-9C34-3D6E87044031}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7E2E3D0C-90DB-4154-A0A6-0D16869A84BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED9F7908-9B07-4FD8-9AB1-B2476FBDBAFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{15E1A746-C18C-4BF1-854B-4292EB7D46BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C9AE90C0-A9C6-4BE0-A1AA-CF4BA20D39F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C1066115-18DD-4576-ACAD-B81132985325}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{01A1FB70-9B0F-4A0D-8475-8E67CE39086E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14939,7 +14939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D919B76A-1BB1-4CEB-8599-B2397D70CAFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747CF838-DBD4-4112-8571-916F8175E508}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16160,18 +16160,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DC77D0FA-5783-4130-89A2-66B49494F463}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8C9E7F36-D99B-40FD-A278-5218A8E7CB93}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{432EA162-016C-4FBF-9FE2-BA22D46C2F33}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6E1EB6C7-3CC0-42B6-A67D-AD3FE5C2DE77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BC839C24-E14F-4C99-94E4-C5228910FC8C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{62772781-6D5C-4FF4-A2B2-F6BB8518E39A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{21EBD9CF-C232-43D8-B5FD-F21872F3E4C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9DBE285C-6BB1-49AB-BE1D-FC3CF1F8D2FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{66365A65-6D47-4A34-AEA1-7B7612F2838C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DE0DED8A-7B62-45DF-B1D5-307169E7EB40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{307E7120-1904-407D-AD47-AB865F358488}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E712A379-DAAE-4ECB-9C49-4C4DA2701775}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C77B2AC7-7BDE-4CAE-B460-717011E2CBFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6F855E7A-1F46-4B79-A0F9-10D861C5520E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{384B1813-5A79-4F38-9D93-065781872A36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ADC5AAE4-3356-4A4F-B2E6-D1F65286866C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{85462052-324C-4E21-86F8-DC4E96B28D4B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0A5C827C-BA32-4F32-9D79-DE98D064B27D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F17F062-CB37-4938-A3BA-DE72E32C7729}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15306422-68C9-4DDF-9358-BE5FF1A52880}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{266B4A41-4579-48AA-B660-E0C8104F46C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D6E1F68-98FC-46CA-B67A-06D08DE12773}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{02A06BB6-D2E7-408D-9E5D-F30470FBD649}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E7D1D452-568F-4E78-933C-5C2B3F6A9385}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
